--- a/Evaluation_Experiment/experiment.xlsx
+++ b/Evaluation_Experiment/experiment.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabriellelittlefair/Desktop/MSc Project/Evaluation_Experiment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabriellelittlefair/Documents/GitHub/MSc Project/Evaluation_Experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD56D735-E6F9-544B-B530-4AC32C5ED4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5DE0DF-E480-8445-B8F9-63FE8016A855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="16760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="760" windowWidth="30240" windowHeight="16880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classification" sheetId="1" r:id="rId1"/>
     <sheet name="Evaluation Comments" sheetId="2" r:id="rId2"/>
+    <sheet name="Image + List vs Image " sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="385">
   <si>
     <t>Image Number</t>
   </si>
@@ -1101,13 +1102,124 @@
   </si>
   <si>
     <t>n/a</t>
+  </si>
+  <si>
+    <t>llm_3Dtd_labelled</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Horrible bed position with space behind headboard, underutilized space</t>
+  </si>
+  <si>
+    <t>They get most of the issues right!</t>
+  </si>
+  <si>
+    <t>Some of the points are less about the actual position of things, and more about them being in the room e.g plants.</t>
+  </si>
+  <si>
+    <t>Not sure whether to classify 'mirror above' fireplace as False or Hallucination?</t>
+  </si>
+  <si>
+    <t>Again, potentially just commenting on the fact that objects are there, rather than where they are placed.</t>
+  </si>
+  <si>
+    <t>Mirror is not that close to the door, neither is the bench.</t>
+  </si>
+  <si>
+    <t>Bed could be more central, otherwise pretty good comments.</t>
+  </si>
+  <si>
+    <t>I think that the rug does define the sleeping area, and also there really isn't much "underutilized space" in the room.</t>
+  </si>
+  <si>
+    <t>I don't think the ottoman restricts access to the bed at all.</t>
+  </si>
+  <si>
+    <t>Wardrobe doors are definitely not obstructed by the dresser. "Chair" by the door is a mirror.</t>
+  </si>
+  <si>
+    <t>The wardrobe is blocked by the bed, not the dresser. Completely missed the obvious issues with this room.</t>
+  </si>
+  <si>
+    <t>Main problem of the room missed: wardrobe is completely blocking the door. BUT I am pretty sure it says that the wardrobe and the "chair" (mirror?) are by the entrance, so I'm not sure what it thinks is the entrance.</t>
+  </si>
+  <si>
+    <t>"chair" = mirror</t>
+  </si>
+  <si>
+    <t>Not much underutilized space, desk is not that close to the wardrobe.</t>
+  </si>
+  <si>
+    <t>Not much underutilized space, missed that the desk is in a horrible position, missed that the chair is in the middle of the room.</t>
+  </si>
+  <si>
+    <t>Pretty good, except the combination of wardrobe too close to bed and clear pathways</t>
+  </si>
+  <si>
+    <t>Seems to always say clear pathways.</t>
+  </si>
+  <si>
+    <t>Does it think the mirror is a bookshelf?</t>
+  </si>
+  <si>
+    <t>Very mixed results with this one.</t>
+  </si>
+  <si>
+    <t>Did it mix up the door and the window?</t>
+  </si>
+  <si>
+    <t>Pretty good, although I would say that the bed obstructs the window</t>
+  </si>
+  <si>
+    <t>I don't think theres much underutilized space at all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List + Image </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Only </t>
+  </si>
+  <si>
+    <t>Image Only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image + List </t>
+  </si>
+  <si>
+    <t>Image Percentage</t>
+  </si>
+  <si>
+    <t>List Percentage</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>IO True</t>
+  </si>
+  <si>
+    <t>IL True</t>
+  </si>
+  <si>
+    <t>IO False</t>
+  </si>
+  <si>
+    <t>IL False</t>
+  </si>
+  <si>
+    <t>IO Hallucination</t>
+  </si>
+  <si>
+    <t>IL Hallucination</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1135,6 +1247,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1156,7 +1281,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1218,12 +1343,236 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1250,12 +1599,62 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1591,10 +1990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM32"/>
+  <dimension ref="A1:AO32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AJ32" sqref="AJ32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1621,9 +2020,11 @@
     <col min="20" max="23" width="10.5" customWidth="1"/>
     <col min="24" max="24" width="31.1640625" customWidth="1"/>
     <col min="35" max="35" width="8.83203125" customWidth="1"/>
+    <col min="36" max="36" width="18.33203125" customWidth="1"/>
+    <col min="37" max="37" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1719,15 +2120,19 @@
       </c>
       <c r="AI1" s="4"/>
       <c r="AJ1" s="4" t="s">
-        <v>33</v>
+        <v>348</v>
       </c>
       <c r="AK1" s="4"/>
       <c r="AL1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AM1" s="4"/>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AO1" s="4"/>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1850,18 +2255,25 @@
         <v>0</v>
       </c>
       <c r="AK2" s="4">
-        <f t="shared" ref="AK2:AK26" si="12">IF(AJ2=C2, 1, 0)</f>
+        <f xml:space="preserve"> IF(AJ2=C2, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AL2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM2" s="4">
-        <f t="shared" ref="AM2:AM26" si="13" xml:space="preserve"> IF(AL2=C2, 1, 0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AM2:AM26" si="12">IF(AL2=C2, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="4">
+        <f t="shared" ref="AO2:AO26" si="13" xml:space="preserve"> IF(AN2=C2, 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1984,18 +2396,25 @@
         <v>0</v>
       </c>
       <c r="AK3" s="4">
+        <f t="shared" ref="AK3:AK26" si="18" xml:space="preserve"> IF(AJ3=C3, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="AL3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="4">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="AL3" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM3" s="4">
+      <c r="AN3" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2114,22 +2533,29 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="AJ4" s="4">
+      <c r="AJ4">
         <v>0</v>
       </c>
       <c r="AK4" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AL4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="4">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AL4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM4" s="4">
+      <c r="AN4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="4">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2252,18 +2678,25 @@
         <v>1</v>
       </c>
       <c r="AK5" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AL5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="4">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AL5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="4">
+      <c r="AN5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="4">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2383,21 +2816,28 @@
         <v>1</v>
       </c>
       <c r="AJ6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK6" s="4">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AL6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="4">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AL6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="4">
+      <c r="AN6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2520,18 +2960,25 @@
         <v>1</v>
       </c>
       <c r="AK7" s="4">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AL7" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="4">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="AL7" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM7" s="4">
+      <c r="AN7" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="4">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2654,18 +3101,25 @@
         <v>0</v>
       </c>
       <c r="AK8" s="4">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AL8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="4">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="AL8" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="4">
+      <c r="AN8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="4">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2788,18 +3242,25 @@
         <v>1</v>
       </c>
       <c r="AK9" s="4">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AL9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="4">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="AL9" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM9" s="4">
+      <c r="AN9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="4">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2919,21 +3380,28 @@
         <v>1</v>
       </c>
       <c r="AJ10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK10" s="4">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AL10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="4">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AL10" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM10" s="4">
+      <c r="AN10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3056,18 +3524,25 @@
         <v>1</v>
       </c>
       <c r="AK11" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AL11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="4">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AL11" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM11" s="4">
+      <c r="AN11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3186,22 +3661,29 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AJ12" s="4">
+      <c r="AJ12" s="19">
         <v>0</v>
       </c>
       <c r="AK12" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AL12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="4">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AL12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="4">
+      <c r="AN12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3324,18 +3806,25 @@
         <v>1</v>
       </c>
       <c r="AK13" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AL13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="4">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AL13" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM13" s="4">
+      <c r="AN13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3455,21 +3944,28 @@
         <v>1</v>
       </c>
       <c r="AJ14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK14" s="4">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AL14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="4">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AL14" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM14" s="4">
+      <c r="AN14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO14" s="4">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3589,21 +4085,28 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK15" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AL15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="4">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="AL15" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM15" s="4">
+      <c r="AN15" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO15" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3726,18 +4229,25 @@
         <v>1</v>
       </c>
       <c r="AK16" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AL16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM16" s="4">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AL16" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM16" s="4">
+      <c r="AN16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO16" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3860,18 +4370,25 @@
         <v>0</v>
       </c>
       <c r="AK17" s="4">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AL17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="4">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="AL17" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM17" s="4">
+      <c r="AN17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="4">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3994,18 +4511,25 @@
         <v>1</v>
       </c>
       <c r="AK18" s="4">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AL18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM18" s="4">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="AL18" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM18" s="4">
+      <c r="AN18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO18" s="4">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4128,18 +4652,25 @@
         <v>1</v>
       </c>
       <c r="AK19" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AL19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM19" s="4">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AL19" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM19" s="4">
+      <c r="AN19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO19" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4262,18 +4793,25 @@
         <v>1</v>
       </c>
       <c r="AK20" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AL20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM20" s="4">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AL20" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM20" s="4">
+      <c r="AN20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO20" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4396,18 +4934,25 @@
         <v>1</v>
       </c>
       <c r="AK21" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AL21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM21" s="4">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AL21" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM21" s="4">
+      <c r="AN21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO21" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4530,18 +5075,25 @@
         <v>1</v>
       </c>
       <c r="AK22" s="4">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AL22" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM22" s="4">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="AL22" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM22" s="4">
+      <c r="AN22" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO22" s="4">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4661,21 +5213,28 @@
         <v>0</v>
       </c>
       <c r="AJ23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK23" s="4">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AL23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM23" s="4">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AL23" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM23" s="4">
+      <c r="AN23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="4">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4798,18 +5357,25 @@
         <v>1</v>
       </c>
       <c r="AK24" s="4">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AL24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM24" s="4">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="AL24" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM24" s="4">
+      <c r="AN24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO24" s="4">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4932,18 +5498,25 @@
         <v>0</v>
       </c>
       <c r="AK25" s="4">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AL25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="4">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="AL25" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM25" s="4">
+      <c r="AN25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO25" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5063,21 +5636,28 @@
         <v>1</v>
       </c>
       <c r="AJ26" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK26" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AL26" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM26" s="4">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="AL26" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM26" s="4">
+      <c r="AN26" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO26" s="4">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
       <c r="X27" t="s">
         <v>37</v>
       </c>
@@ -5093,9 +5673,10 @@
       <c r="AG27" s="4"/>
       <c r="AI27" s="4"/>
       <c r="AK27" s="8"/>
-      <c r="AM27" s="4"/>
-    </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AM27" s="8"/>
+      <c r="AO27" s="4"/>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
       <c r="X28" t="s">
         <v>38</v>
       </c>
@@ -5108,9 +5689,10 @@
       <c r="AG28" s="4"/>
       <c r="AI28" s="4"/>
       <c r="AK28" s="8"/>
-      <c r="AM28" s="4"/>
-    </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AM28" s="8"/>
+      <c r="AO28" s="4"/>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
       <c r="X29" t="s">
         <v>35</v>
       </c>
@@ -5123,9 +5705,10 @@
       <c r="AG29" s="4"/>
       <c r="AI29" s="4"/>
       <c r="AK29" s="8"/>
-      <c r="AM29" s="4"/>
-    </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AM29" s="8"/>
+      <c r="AO29" s="4"/>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
       <c r="X30" t="s">
         <v>36</v>
       </c>
@@ -5138,9 +5721,10 @@
       <c r="AG30" s="4"/>
       <c r="AI30" s="4"/>
       <c r="AK30" s="8"/>
-      <c r="AM30" s="4"/>
-    </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AM30" s="8"/>
+      <c r="AO30" s="4"/>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
       <c r="X31" s="4" t="s">
         <v>23</v>
       </c>
@@ -5178,14 +5762,18 @@
       </c>
       <c r="AK31" s="8">
         <f xml:space="preserve"> SUM(AK2:AK26)</f>
+        <v>13</v>
+      </c>
+      <c r="AM31" s="8">
+        <f xml:space="preserve"> SUM(AM2:AM26)</f>
         <v>11</v>
       </c>
-      <c r="AM31" s="4">
-        <f xml:space="preserve"> SUM(AM2:AM26)</f>
+      <c r="AO31" s="4">
+        <f xml:space="preserve"> SUM(AO2:AO26)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:41" ht="17" x14ac:dyDescent="0.2">
       <c r="X32" s="5" t="s">
         <v>24</v>
       </c>
@@ -5194,15 +5782,15 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="Z32" s="6">
-        <f t="shared" ref="Z32:AB32" si="18">Z31/25</f>
+        <f t="shared" ref="Z32:AB32" si="19">Z31/25</f>
         <v>0.44</v>
       </c>
       <c r="AA32" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.72</v>
       </c>
       <c r="AB32" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="AC32" s="6">
@@ -5224,14 +5812,19 @@
         <f xml:space="preserve"> AI31/25</f>
         <v>0.6</v>
       </c>
-      <c r="AJ32" s="3"/>
+      <c r="AJ32" s="18"/>
       <c r="AK32" s="6">
         <f xml:space="preserve"> AK31/25</f>
-        <v>0.44</v>
+        <v>0.52</v>
       </c>
       <c r="AL32" s="3"/>
       <c r="AM32" s="6">
         <f xml:space="preserve"> AM31/25</f>
+        <v>0.44</v>
+      </c>
+      <c r="AN32" s="3"/>
+      <c r="AO32" s="6">
+        <f xml:space="preserve"> AO31/25</f>
         <v>0.52</v>
       </c>
     </row>
@@ -5245,7 +5838,7 @@
   <dimension ref="A1:JY282"/>
   <sheetViews>
     <sheetView zoomScale="91" zoomScaleNormal="33" workbookViewId="0">
-      <selection activeCell="D276" sqref="D276"/>
+      <selection activeCell="E1" sqref="E1:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5260,13 +5853,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:285" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="43" t="s">
         <v>320</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="44" t="s">
         <v>318</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="44" t="s">
         <v>319</v>
       </c>
       <c r="E1" s="4"/>
@@ -5284,9 +5877,9 @@
       </c>
     </row>
     <row r="2" spans="1:285" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
       <c r="D2" s="13"/>
       <c r="E2" s="4" t="b">
         <v>1</v>
@@ -8949,4 +9542,4541 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A9923D-1855-4F43-AEEA-9DFD747875A6}">
+  <dimension ref="A1:N276"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="14"/>
+    <col min="2" max="2" width="15.83203125" style="14" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" style="14"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="12" max="12" width="10.5" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" customWidth="1"/>
+    <col min="14" max="14" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
+        <v>372</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="E1" s="32"/>
+    </row>
+    <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="B2" s="25">
+        <v>45419.643622685187</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="20">
+        <v>1</v>
+      </c>
+      <c r="B3" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="20">
+        <v>1</v>
+      </c>
+      <c r="E3" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="16">
+        <f>COUNTIF(E:E, "True*")+COUNTIF(E:E, "True") +COUNTIF(E:E, "*True")</f>
+        <v>176</v>
+      </c>
+      <c r="J3" s="16">
+        <f>COUNTIF(B:B, "True*") +COUNTIF(B:B, "True")  +COUNTIF(B:B, "*True")</f>
+        <v>182</v>
+      </c>
+      <c r="K3" s="6">
+        <f xml:space="preserve"> I3/(COUNTA(E3:E276) - 25)</f>
+        <v>0.70682730923694781</v>
+      </c>
+      <c r="L3" s="6">
+        <f xml:space="preserve"> J3/(COUNTA(B3:B256) - 25)</f>
+        <v>0.79475982532751088</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="20">
+        <v>1</v>
+      </c>
+      <c r="B4" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="20">
+        <v>1</v>
+      </c>
+      <c r="E4" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="16">
+        <f>COUNTIF(E:E, "False*")+COUNTIF(E:E, "False") +COUNTIF(E:E, "*False")</f>
+        <v>59</v>
+      </c>
+      <c r="J4" s="16">
+        <f>COUNTIF(B:B, "False*")+COUNTIF(B:B, "False") +COUNTIF(B:B, "*False")</f>
+        <v>53</v>
+      </c>
+      <c r="K4" s="6">
+        <f xml:space="preserve"> I4/(COUNTA(E3:E276) - 25)</f>
+        <v>0.23694779116465864</v>
+      </c>
+      <c r="L4" s="6">
+        <f xml:space="preserve"> J4/(COUNTA(B3:B256) - 25)</f>
+        <v>0.23144104803493451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="20">
+        <v>1</v>
+      </c>
+      <c r="B5" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="20">
+        <v>1</v>
+      </c>
+      <c r="E5" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="I5" s="16">
+        <f>COUNTIF(E:E, "Hallucination*")+COUNTIF(E:E, "Hallucination") +COUNTIF(E:E, "*Hallucination")</f>
+        <v>63</v>
+      </c>
+      <c r="J5" s="16">
+        <f>COUNTIF(B:B, "Hallucination*")+COUNTIF(B:B, "Hallucination") +COUNTIF(B:B, "*Hallucination")</f>
+        <v>4</v>
+      </c>
+      <c r="K5" s="6">
+        <f xml:space="preserve"> I5/(COUNTA(E3:E276) - 25)</f>
+        <v>0.25301204819277107</v>
+      </c>
+      <c r="L5" s="6">
+        <f xml:space="preserve"> J5/(COUNTA(B3:B256) - 25)</f>
+        <v>1.7467248908296942E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20">
+        <v>1</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="D6" s="20">
+        <v>1</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
+        <v>1</v>
+      </c>
+      <c r="B7" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="20">
+        <v>1</v>
+      </c>
+      <c r="E7" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>378</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="J7" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="K7" s="38" t="s">
+        <v>382</v>
+      </c>
+      <c r="L7" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="M7" s="38" t="s">
+        <v>384</v>
+      </c>
+      <c r="N7" s="39" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="20">
+        <v>1</v>
+      </c>
+      <c r="B8" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="20">
+        <v>1</v>
+      </c>
+      <c r="E8" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="35">
+        <v>1</v>
+      </c>
+      <c r="I8" s="40" cm="1">
+        <f t="array" ref="I8">(SUMPRODUCT(($A$3:$A$276=$H8)*(ISNUMBER(SEARCH("True", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H8)</f>
+        <v>1</v>
+      </c>
+      <c r="J8" s="41" cm="1">
+        <f t="array" ref="J8">(SUMPRODUCT(($D$3:$D$276=$H8)*(ISNUMBER(SEARCH("True", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H8)</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="K8" s="41" cm="1">
+        <f t="array" ref="K8">(SUMPRODUCT(($A$3:$A$276=$H8)*(ISNUMBER(SEARCH("False", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H8)</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="L8" s="41" cm="1">
+        <f t="array" ref="L8">(SUMPRODUCT(($D$3:$D$276=$H8)*(ISNUMBER(SEARCH("False", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H8)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M8" s="41" cm="1">
+        <f t="array" ref="M8">(SUMPRODUCT(($A$3:$A$276=$H8)*(ISNUMBER(SEARCH("Hallucination", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H8)</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="N8" s="41" cm="1">
+        <f t="array" ref="N8">(SUMPRODUCT(($D$3:$D$276=$H8)*(ISNUMBER(SEARCH("Hallucination", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H8)</f>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="20">
+        <v>1</v>
+      </c>
+      <c r="B9" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="20">
+        <v>1</v>
+      </c>
+      <c r="E9" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="33">
+        <v>2</v>
+      </c>
+      <c r="I9" s="42" cm="1">
+        <f t="array" ref="I9">(SUMPRODUCT(($A$3:$A$276=H9)*(ISNUMBER(SEARCH("True", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, H9)</f>
+        <v>0.8</v>
+      </c>
+      <c r="J9" s="6" cm="1">
+        <f t="array" ref="J9">(SUMPRODUCT(($D$3:$D$276=H9)*(ISNUMBER(SEARCH("True", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, H9)</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="K9" s="6" cm="1">
+        <f t="array" ref="K9">(SUMPRODUCT(($A$3:$A$276=$H9)*(ISNUMBER(SEARCH("False", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H9)</f>
+        <v>0.2</v>
+      </c>
+      <c r="L9" s="6" cm="1">
+        <f t="array" ref="L9">(SUMPRODUCT(($D$3:$D$276=$H9)*(ISNUMBER(SEARCH("False", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H9)</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="M9" s="6" cm="1">
+        <f t="array" ref="M9">(SUMPRODUCT(($A$3:$A$276=$H9)*(ISNUMBER(SEARCH("Hallucination", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H9)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="6" cm="1">
+        <f t="array" ref="N9">(SUMPRODUCT(($D$3:$D$276=$H9)*(ISNUMBER(SEARCH("Hallucination", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H9)</f>
+        <v>0.22222222222222221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="20">
+        <v>1</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="D10" s="20">
+        <v>1</v>
+      </c>
+      <c r="E10" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="33">
+        <v>3</v>
+      </c>
+      <c r="I10" s="42" cm="1">
+        <f t="array" ref="I10">(SUMPRODUCT(($A$3:$A$276=H10)*(ISNUMBER(SEARCH("True", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, H10)</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="J10" s="6" cm="1">
+        <f t="array" ref="J10">(SUMPRODUCT(($D$3:$D$276=H10)*(ISNUMBER(SEARCH("True", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, H10)</f>
+        <v>0.7</v>
+      </c>
+      <c r="K10" s="6" cm="1">
+        <f t="array" ref="K10">(SUMPRODUCT(($A$3:$A$276=$H10)*(ISNUMBER(SEARCH("False", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H10)</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="L10" s="6" cm="1">
+        <f t="array" ref="L10">(SUMPRODUCT(($D$3:$D$276=$H10)*(ISNUMBER(SEARCH("False", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H10)</f>
+        <v>0.1</v>
+      </c>
+      <c r="M10" s="6" cm="1">
+        <f t="array" ref="M10">(SUMPRODUCT(($A$3:$A$276=$H10)*(ISNUMBER(SEARCH("Hallucination", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H10)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="6" cm="1">
+        <f t="array" ref="N10">(SUMPRODUCT(($D$3:$D$276=$H10)*(ISNUMBER(SEARCH("Hallucination", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H10)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="20">
+        <v>1</v>
+      </c>
+      <c r="B11" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="20">
+        <v>1</v>
+      </c>
+      <c r="E11" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="33">
+        <v>4</v>
+      </c>
+      <c r="I11" s="42" cm="1">
+        <f t="array" ref="I11">(SUMPRODUCT(($A$3:$A$276=H11)*(ISNUMBER(SEARCH("True", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, H11)</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="J11" s="6" cm="1">
+        <f t="array" ref="J11">(SUMPRODUCT(($D$3:$D$276=H11)*(ISNUMBER(SEARCH("True", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, H11)</f>
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="6" cm="1">
+        <f t="array" ref="K11">(SUMPRODUCT(($A$3:$A$276=$H11)*(ISNUMBER(SEARCH("False", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H11)</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="L11" s="6" cm="1">
+        <f t="array" ref="L11">(SUMPRODUCT(($D$3:$D$276=$H11)*(ISNUMBER(SEARCH("False", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H11)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M11" s="6" cm="1">
+        <f t="array" ref="M11">(SUMPRODUCT(($A$3:$A$276=$H11)*(ISNUMBER(SEARCH("Hallucination", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H11)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="6" cm="1">
+        <f t="array" ref="N11">(SUMPRODUCT(($D$3:$D$276=$H11)*(ISNUMBER(SEARCH("Hallucination", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="H12" s="33">
+        <v>5</v>
+      </c>
+      <c r="I12" s="42" cm="1">
+        <f t="array" ref="I12">(SUMPRODUCT(($A$3:$A$276=H12)*(ISNUMBER(SEARCH("True", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, H12)</f>
+        <v>0.8</v>
+      </c>
+      <c r="J12" s="6" cm="1">
+        <f t="array" ref="J12">(SUMPRODUCT(($D$3:$D$276=H12)*(ISNUMBER(SEARCH("True", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, H12)</f>
+        <v>0.7</v>
+      </c>
+      <c r="K12" s="6" cm="1">
+        <f t="array" ref="K12">(SUMPRODUCT(($A$3:$A$276=$H12)*(ISNUMBER(SEARCH("False", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H12)</f>
+        <v>0.2</v>
+      </c>
+      <c r="L12" s="6" cm="1">
+        <f t="array" ref="L12">(SUMPRODUCT(($D$3:$D$276=$H12)*(ISNUMBER(SEARCH("False", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H12)</f>
+        <v>0.2</v>
+      </c>
+      <c r="M12" s="6" cm="1">
+        <f t="array" ref="M12">(SUMPRODUCT(($A$3:$A$276=$H12)*(ISNUMBER(SEARCH("Hallucination", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H12)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="6" cm="1">
+        <f t="array" ref="N12">(SUMPRODUCT(($D$3:$D$276=$H12)*(ISNUMBER(SEARCH("Hallucination", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H12)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="20">
+        <v>2</v>
+      </c>
+      <c r="B13" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="20">
+        <v>2</v>
+      </c>
+      <c r="E13" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="33">
+        <v>6</v>
+      </c>
+      <c r="I13" s="42" cm="1">
+        <f t="array" ref="I13">(SUMPRODUCT(($A$3:$A$276=H13)*(ISNUMBER(SEARCH("True", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, H13)</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="J13" s="6" cm="1">
+        <f t="array" ref="J13">(SUMPRODUCT(($D$3:$D$276=H13)*(ISNUMBER(SEARCH("True", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, H13)</f>
+        <v>0.8</v>
+      </c>
+      <c r="K13" s="6" cm="1">
+        <f t="array" ref="K13">(SUMPRODUCT(($A$3:$A$276=$H13)*(ISNUMBER(SEARCH("False", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H13)</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="L13" s="6" cm="1">
+        <f t="array" ref="L13">(SUMPRODUCT(($D$3:$D$276=$H13)*(ISNUMBER(SEARCH("False", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H13)</f>
+        <v>0.1</v>
+      </c>
+      <c r="M13" s="6" cm="1">
+        <f t="array" ref="M13">(SUMPRODUCT(($A$3:$A$276=$H13)*(ISNUMBER(SEARCH("Hallucination", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H13)</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="6" cm="1">
+        <f t="array" ref="N13">(SUMPRODUCT(($D$3:$D$276=$H13)*(ISNUMBER(SEARCH("Hallucination", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H13)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="20">
+        <v>2</v>
+      </c>
+      <c r="B14" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="20">
+        <v>2</v>
+      </c>
+      <c r="E14" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="33">
+        <v>7</v>
+      </c>
+      <c r="I14" s="42" cm="1">
+        <f t="array" ref="I14">(SUMPRODUCT(($A$3:$A$276=H14)*(ISNUMBER(SEARCH("True", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, H14)</f>
+        <v>0.625</v>
+      </c>
+      <c r="J14" s="6" cm="1">
+        <f t="array" ref="J14">(SUMPRODUCT(($D$3:$D$276=H14)*(ISNUMBER(SEARCH("True", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, H14)</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="K14" s="6" cm="1">
+        <f t="array" ref="K14">(SUMPRODUCT(($A$3:$A$276=$H14)*(ISNUMBER(SEARCH("False", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H14)</f>
+        <v>0.375</v>
+      </c>
+      <c r="L14" s="6" cm="1">
+        <f t="array" ref="L14">(SUMPRODUCT(($D$3:$D$276=$H14)*(ISNUMBER(SEARCH("False", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H14)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M14" s="6" cm="1">
+        <f t="array" ref="M14">(SUMPRODUCT(($A$3:$A$276=$H14)*(ISNUMBER(SEARCH("Hallucination", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H14)</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="6" cm="1">
+        <f t="array" ref="N14">(SUMPRODUCT(($D$3:$D$276=$H14)*(ISNUMBER(SEARCH("Hallucination", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H14)</f>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="20">
+        <v>2</v>
+      </c>
+      <c r="B15" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="20">
+        <v>2</v>
+      </c>
+      <c r="E15" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="33">
+        <v>8</v>
+      </c>
+      <c r="I15" s="42" cm="1">
+        <f t="array" ref="I15">(SUMPRODUCT(($A$3:$A$276=H15)*(ISNUMBER(SEARCH("True", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, H15)</f>
+        <v>0.8</v>
+      </c>
+      <c r="J15" s="6" cm="1">
+        <f t="array" ref="J15">(SUMPRODUCT(($D$3:$D$276=H15)*(ISNUMBER(SEARCH("True", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, H15)</f>
+        <v>0.7</v>
+      </c>
+      <c r="K15" s="6" cm="1">
+        <f t="array" ref="K15">(SUMPRODUCT(($A$3:$A$276=$H15)*(ISNUMBER(SEARCH("False", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H15)</f>
+        <v>0.2</v>
+      </c>
+      <c r="L15" s="6" cm="1">
+        <f t="array" ref="L15">(SUMPRODUCT(($D$3:$D$276=$H15)*(ISNUMBER(SEARCH("False", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H15)</f>
+        <v>0.2</v>
+      </c>
+      <c r="M15" s="6" cm="1">
+        <f t="array" ref="M15">(SUMPRODUCT(($A$3:$A$276=$H15)*(ISNUMBER(SEARCH("Hallucination", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H15)</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="6" cm="1">
+        <f t="array" ref="N15">(SUMPRODUCT(($D$3:$D$276=$H15)*(ISNUMBER(SEARCH("Hallucination", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H15)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="20">
+        <v>2</v>
+      </c>
+      <c r="B16" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="20">
+        <v>2</v>
+      </c>
+      <c r="E16" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="33">
+        <v>9</v>
+      </c>
+      <c r="I16" s="42" cm="1">
+        <f t="array" ref="I16">(SUMPRODUCT(($A$3:$A$276=H16)*(ISNUMBER(SEARCH("True", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, H16)</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="J16" s="6" cm="1">
+        <f t="array" ref="J16">(SUMPRODUCT(($D$3:$D$276=H16)*(ISNUMBER(SEARCH("True", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, H16)</f>
+        <v>0.7</v>
+      </c>
+      <c r="K16" s="6" cm="1">
+        <f t="array" ref="K16">(SUMPRODUCT(($A$3:$A$276=$H16)*(ISNUMBER(SEARCH("False", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H16)</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="L16" s="6" cm="1">
+        <f t="array" ref="L16">(SUMPRODUCT(($D$3:$D$276=$H16)*(ISNUMBER(SEARCH("False", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H16)</f>
+        <v>0.2</v>
+      </c>
+      <c r="M16" s="6" cm="1">
+        <f t="array" ref="M16">(SUMPRODUCT(($A$3:$A$276=$H16)*(ISNUMBER(SEARCH("Hallucination", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H16)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="6" cm="1">
+        <f t="array" ref="N16">(SUMPRODUCT(($D$3:$D$276=$H16)*(ISNUMBER(SEARCH("Hallucination", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H16)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="20">
+        <v>2</v>
+      </c>
+      <c r="B17" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" s="20">
+        <v>2</v>
+      </c>
+      <c r="E17" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="33">
+        <v>10</v>
+      </c>
+      <c r="I17" s="42" cm="1">
+        <f t="array" ref="I17">(SUMPRODUCT(($A$3:$A$276=H17)*(ISNUMBER(SEARCH("True", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, H17)</f>
+        <v>1</v>
+      </c>
+      <c r="J17" s="6" cm="1">
+        <f t="array" ref="J17">(SUMPRODUCT(($D$3:$D$276=H17)*(ISNUMBER(SEARCH("True", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, H17)</f>
+        <v>0.8</v>
+      </c>
+      <c r="K17" s="6" cm="1">
+        <f t="array" ref="K17">(SUMPRODUCT(($A$3:$A$276=$H17)*(ISNUMBER(SEARCH("False", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H17)</f>
+        <v>0.1</v>
+      </c>
+      <c r="L17" s="6" cm="1">
+        <f t="array" ref="L17">(SUMPRODUCT(($D$3:$D$276=$H17)*(ISNUMBER(SEARCH("False", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H17)</f>
+        <v>0.2</v>
+      </c>
+      <c r="M17" s="6" cm="1">
+        <f t="array" ref="M17">(SUMPRODUCT(($A$3:$A$276=$H17)*(ISNUMBER(SEARCH("Hallucination", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H17)</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="6" cm="1">
+        <f t="array" ref="N17">(SUMPRODUCT(($D$3:$D$276=$H17)*(ISNUMBER(SEARCH("Hallucination", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H17)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="20">
+        <v>2</v>
+      </c>
+      <c r="B18" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" s="20">
+        <v>2</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="H18" s="33">
+        <v>11</v>
+      </c>
+      <c r="I18" s="42" cm="1">
+        <f t="array" ref="I18">(SUMPRODUCT(($A$3:$A$276=H18)*(ISNUMBER(SEARCH("True", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, H18)</f>
+        <v>0.75</v>
+      </c>
+      <c r="J18" s="6" cm="1">
+        <f t="array" ref="J18">(SUMPRODUCT(($D$3:$D$276=H18)*(ISNUMBER(SEARCH("True", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, H18)</f>
+        <v>1</v>
+      </c>
+      <c r="K18" s="6" cm="1">
+        <f t="array" ref="K18">(SUMPRODUCT(($A$3:$A$276=$H18)*(ISNUMBER(SEARCH("False", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H18)</f>
+        <v>0.25</v>
+      </c>
+      <c r="L18" s="6" cm="1">
+        <f t="array" ref="L18">(SUMPRODUCT(($D$3:$D$276=$H18)*(ISNUMBER(SEARCH("False", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H18)</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="6" cm="1">
+        <f t="array" ref="M18">(SUMPRODUCT(($A$3:$A$276=$H18)*(ISNUMBER(SEARCH("Hallucination", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H18)</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="6" cm="1">
+        <f t="array" ref="N18">(SUMPRODUCT(($D$3:$D$276=$H18)*(ISNUMBER(SEARCH("Hallucination", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H18)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="20">
+        <v>2</v>
+      </c>
+      <c r="B19" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" s="20">
+        <v>2</v>
+      </c>
+      <c r="E19" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="33">
+        <v>12</v>
+      </c>
+      <c r="I19" s="42" cm="1">
+        <f t="array" ref="I19">(SUMPRODUCT(($A$3:$A$276=H19)*(ISNUMBER(SEARCH("True", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, H19)</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="J19" s="6" cm="1">
+        <f t="array" ref="J19">(SUMPRODUCT(($D$3:$D$276=H19)*(ISNUMBER(SEARCH("True", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, H19)</f>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="K19" s="6" cm="1">
+        <f t="array" ref="K19">(SUMPRODUCT(($A$3:$A$276=$H19)*(ISNUMBER(SEARCH("False", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H19)</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="L19" s="6" cm="1">
+        <f t="array" ref="L19">(SUMPRODUCT(($D$3:$D$276=$H19)*(ISNUMBER(SEARCH("False", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H19)</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="M19" s="6" cm="1">
+        <f t="array" ref="M19">(SUMPRODUCT(($A$3:$A$276=$H19)*(ISNUMBER(SEARCH("Hallucination", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H19)</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="N19" s="6" cm="1">
+        <f t="array" ref="N19">(SUMPRODUCT(($D$3:$D$276=$H19)*(ISNUMBER(SEARCH("Hallucination", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H19)</f>
+        <v>0.18181818181818182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="20">
+        <v>2</v>
+      </c>
+      <c r="B20" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" s="20">
+        <v>2</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="H20" s="33">
+        <v>13</v>
+      </c>
+      <c r="I20" s="42" cm="1">
+        <f t="array" ref="I20">(SUMPRODUCT(($A$3:$A$276=H20)*(ISNUMBER(SEARCH("True", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, H20)</f>
+        <v>0.875</v>
+      </c>
+      <c r="J20" s="6" cm="1">
+        <f t="array" ref="J20">(SUMPRODUCT(($D$3:$D$276=H20)*(ISNUMBER(SEARCH("True", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, H20)</f>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="K20" s="6" cm="1">
+        <f t="array" ref="K20">(SUMPRODUCT(($A$3:$A$276=$H20)*(ISNUMBER(SEARCH("False", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H20)</f>
+        <v>0.25</v>
+      </c>
+      <c r="L20" s="6" cm="1">
+        <f t="array" ref="L20">(SUMPRODUCT(($D$3:$D$276=$H20)*(ISNUMBER(SEARCH("False", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H20)</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="M20" s="6" cm="1">
+        <f t="array" ref="M20">(SUMPRODUCT(($A$3:$A$276=$H20)*(ISNUMBER(SEARCH("Hallucination", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H20)</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="6" cm="1">
+        <f t="array" ref="N20">(SUMPRODUCT(($D$3:$D$276=$H20)*(ISNUMBER(SEARCH("Hallucination", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H20)</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="20">
+        <v>2</v>
+      </c>
+      <c r="B21" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" s="20">
+        <v>2</v>
+      </c>
+      <c r="E21" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="33">
+        <v>14</v>
+      </c>
+      <c r="I21" s="42" cm="1">
+        <f t="array" ref="I21">(SUMPRODUCT(($A$3:$A$276=H21)*(ISNUMBER(SEARCH("True", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, H21)</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="J21" s="6" cm="1">
+        <f t="array" ref="J21">(SUMPRODUCT(($D$3:$D$276=H21)*(ISNUMBER(SEARCH("True", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, H21)</f>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="K21" s="6" cm="1">
+        <f t="array" ref="K21">(SUMPRODUCT(($A$3:$A$276=$H21)*(ISNUMBER(SEARCH("False", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H21)</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="L21" s="6" cm="1">
+        <f t="array" ref="L21">(SUMPRODUCT(($D$3:$D$276=$H21)*(ISNUMBER(SEARCH("False", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H21)</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="M21" s="6" cm="1">
+        <f t="array" ref="M21">(SUMPRODUCT(($A$3:$A$276=$H21)*(ISNUMBER(SEARCH("Hallucination", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H21)</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="6" cm="1">
+        <f t="array" ref="N21">(SUMPRODUCT(($D$3:$D$276=$H21)*(ISNUMBER(SEARCH("Hallucination", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H21)</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="20">
+        <v>2</v>
+      </c>
+      <c r="B22" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>323</v>
+      </c>
+      <c r="H22" s="33">
+        <v>15</v>
+      </c>
+      <c r="I22" s="42" cm="1">
+        <f t="array" ref="I22">(SUMPRODUCT(($A$3:$A$276=H22)*(ISNUMBER(SEARCH("True", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, H22)</f>
+        <v>0.875</v>
+      </c>
+      <c r="J22" s="6" cm="1">
+        <f t="array" ref="J22">(SUMPRODUCT(($D$3:$D$276=H22)*(ISNUMBER(SEARCH("True", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, H22)</f>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="K22" s="6" cm="1">
+        <f t="array" ref="K22">(SUMPRODUCT(($A$3:$A$276=$H22)*(ISNUMBER(SEARCH("False", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H22)</f>
+        <v>0.25</v>
+      </c>
+      <c r="L22" s="6" cm="1">
+        <f t="array" ref="L22">(SUMPRODUCT(($D$3:$D$276=$H22)*(ISNUMBER(SEARCH("False", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H22)</f>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="M22" s="6" cm="1">
+        <f t="array" ref="M22">(SUMPRODUCT(($A$3:$A$276=$H22)*(ISNUMBER(SEARCH("Hallucination", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H22)</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="6" cm="1">
+        <f t="array" ref="N22">(SUMPRODUCT(($D$3:$D$276=$H22)*(ISNUMBER(SEARCH("Hallucination", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H22)</f>
+        <v>0.18181818181818182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="D23" s="20">
+        <v>3</v>
+      </c>
+      <c r="E23" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="33">
+        <v>16</v>
+      </c>
+      <c r="I23" s="42" cm="1">
+        <f t="array" ref="I23">(SUMPRODUCT(($A$3:$A$276=H23)*(ISNUMBER(SEARCH("True", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, H23)</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="J23" s="6" cm="1">
+        <f t="array" ref="J23">(SUMPRODUCT(($D$3:$D$276=H23)*(ISNUMBER(SEARCH("True", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, H23)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K23" s="6" cm="1">
+        <f t="array" ref="K23">(SUMPRODUCT(($A$3:$A$276=$H23)*(ISNUMBER(SEARCH("False", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H23)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L23" s="6" cm="1">
+        <f t="array" ref="L23">(SUMPRODUCT(($D$3:$D$276=$H23)*(ISNUMBER(SEARCH("False", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H23)</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="M23" s="6" cm="1">
+        <f t="array" ref="M23">(SUMPRODUCT(($A$3:$A$276=$H23)*(ISNUMBER(SEARCH("Hallucination", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H23)</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="6" cm="1">
+        <f t="array" ref="N23">(SUMPRODUCT(($D$3:$D$276=$H23)*(ISNUMBER(SEARCH("Hallucination", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H23)</f>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="20">
+        <v>3</v>
+      </c>
+      <c r="B24" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" s="20">
+        <v>3</v>
+      </c>
+      <c r="E24" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="33">
+        <v>17</v>
+      </c>
+      <c r="I24" s="42" cm="1">
+        <f t="array" ref="I24">(SUMPRODUCT(($A$3:$A$276=H24)*(ISNUMBER(SEARCH("True", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, H24)</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="J24" s="6" cm="1">
+        <f t="array" ref="J24">(SUMPRODUCT(($D$3:$D$276=H24)*(ISNUMBER(SEARCH("True", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, H24)</f>
+        <v>0.8</v>
+      </c>
+      <c r="K24" s="6" cm="1">
+        <f t="array" ref="K24">(SUMPRODUCT(($A$3:$A$276=$H24)*(ISNUMBER(SEARCH("False", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H24)</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="L24" s="6" cm="1">
+        <f t="array" ref="L24">(SUMPRODUCT(($D$3:$D$276=$H24)*(ISNUMBER(SEARCH("False", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H24)</f>
+        <v>0.2</v>
+      </c>
+      <c r="M24" s="6" cm="1">
+        <f t="array" ref="M24">(SUMPRODUCT(($A$3:$A$276=$H24)*(ISNUMBER(SEARCH("Hallucination", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H24)</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="6" cm="1">
+        <f t="array" ref="N24">(SUMPRODUCT(($D$3:$D$276=$H24)*(ISNUMBER(SEARCH("Hallucination", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="20">
+        <v>3</v>
+      </c>
+      <c r="B25" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" s="20">
+        <v>3</v>
+      </c>
+      <c r="E25" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="33">
+        <v>18</v>
+      </c>
+      <c r="I25" s="42" cm="1">
+        <f t="array" ref="I25">(SUMPRODUCT(($A$3:$A$276=H25)*(ISNUMBER(SEARCH("True", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, H25)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J25" s="6" cm="1">
+        <f t="array" ref="J25">(SUMPRODUCT(($D$3:$D$276=H25)*(ISNUMBER(SEARCH("True", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, H25)</f>
+        <v>0.7</v>
+      </c>
+      <c r="K25" s="6" cm="1">
+        <f t="array" ref="K25">(SUMPRODUCT(($A$3:$A$276=$H25)*(ISNUMBER(SEARCH("False", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H25)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L25" s="6" cm="1">
+        <f t="array" ref="L25">(SUMPRODUCT(($D$3:$D$276=$H25)*(ISNUMBER(SEARCH("False", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H25)</f>
+        <v>0.2</v>
+      </c>
+      <c r="M25" s="6" cm="1">
+        <f t="array" ref="M25">(SUMPRODUCT(($A$3:$A$276=$H25)*(ISNUMBER(SEARCH("Hallucination", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H25)</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="6" cm="1">
+        <f t="array" ref="N25">(SUMPRODUCT(($D$3:$D$276=$H25)*(ISNUMBER(SEARCH("Hallucination", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H25)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="20">
+        <v>3</v>
+      </c>
+      <c r="B26" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" s="20">
+        <v>3</v>
+      </c>
+      <c r="E26" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="33">
+        <v>19</v>
+      </c>
+      <c r="I26" s="42" cm="1">
+        <f t="array" ref="I26">(SUMPRODUCT(($A$3:$A$276=H26)*(ISNUMBER(SEARCH("True", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, H26)</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="J26" s="6" cm="1">
+        <f t="array" ref="J26">(SUMPRODUCT(($D$3:$D$276=H26)*(ISNUMBER(SEARCH("True", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, H26)</f>
+        <v>0.5</v>
+      </c>
+      <c r="K26" s="6" cm="1">
+        <f t="array" ref="K26">(SUMPRODUCT(($A$3:$A$276=$H26)*(ISNUMBER(SEARCH("False", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H26)</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="L26" s="6" cm="1">
+        <f t="array" ref="L26">(SUMPRODUCT(($D$3:$D$276=$H26)*(ISNUMBER(SEARCH("False", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H26)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M26" s="6" cm="1">
+        <f t="array" ref="M26">(SUMPRODUCT(($A$3:$A$276=$H26)*(ISNUMBER(SEARCH("Hallucination", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H26)</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="6" cm="1">
+        <f t="array" ref="N26">(SUMPRODUCT(($D$3:$D$276=$H26)*(ISNUMBER(SEARCH("Hallucination", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="20">
+        <v>3</v>
+      </c>
+      <c r="B27" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" s="20">
+        <v>3</v>
+      </c>
+      <c r="E27" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="33">
+        <v>20</v>
+      </c>
+      <c r="I27" s="42" cm="1">
+        <f t="array" ref="I27">(SUMPRODUCT(($A$3:$A$276=H27)*(ISNUMBER(SEARCH("True", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, H27)</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="J27" s="6" cm="1">
+        <f t="array" ref="J27">(SUMPRODUCT(($D$3:$D$276=H27)*(ISNUMBER(SEARCH("True", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, H27)</f>
+        <v>0.7</v>
+      </c>
+      <c r="K27" s="6" cm="1">
+        <f t="array" ref="K27">(SUMPRODUCT(($A$3:$A$276=$H27)*(ISNUMBER(SEARCH("False", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H27)</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="L27" s="6" cm="1">
+        <f t="array" ref="L27">(SUMPRODUCT(($D$3:$D$276=$H27)*(ISNUMBER(SEARCH("False", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H27)</f>
+        <v>0.4</v>
+      </c>
+      <c r="M27" s="6" cm="1">
+        <f t="array" ref="M27">(SUMPRODUCT(($A$3:$A$276=$H27)*(ISNUMBER(SEARCH("Hallucination", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H27)</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="6" cm="1">
+        <f t="array" ref="N27">(SUMPRODUCT(($D$3:$D$276=$H27)*(ISNUMBER(SEARCH("Hallucination", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="20">
+        <v>3</v>
+      </c>
+      <c r="B28" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" s="20">
+        <v>3</v>
+      </c>
+      <c r="E28" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="33">
+        <v>21</v>
+      </c>
+      <c r="I28" s="42" cm="1">
+        <f t="array" ref="I28">(SUMPRODUCT(($A$3:$A$276=H28)*(ISNUMBER(SEARCH("True", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, H28)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J28" s="6" cm="1">
+        <f t="array" ref="J28">(SUMPRODUCT(($D$3:$D$276=H28)*(ISNUMBER(SEARCH("True", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, H28)</f>
+        <v>0.8</v>
+      </c>
+      <c r="K28" s="6" cm="1">
+        <f t="array" ref="K28">(SUMPRODUCT(($A$3:$A$276=$H28)*(ISNUMBER(SEARCH("False", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H28)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L28" s="6" cm="1">
+        <f t="array" ref="L28">(SUMPRODUCT(($D$3:$D$276=$H28)*(ISNUMBER(SEARCH("False", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H28)</f>
+        <v>0.1</v>
+      </c>
+      <c r="M28" s="6" cm="1">
+        <f t="array" ref="M28">(SUMPRODUCT(($A$3:$A$276=$H28)*(ISNUMBER(SEARCH("Hallucination", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H28)</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="6" cm="1">
+        <f t="array" ref="N28">(SUMPRODUCT(($D$3:$D$276=$H28)*(ISNUMBER(SEARCH("Hallucination", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H28)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="20">
+        <v>3</v>
+      </c>
+      <c r="B29" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" s="20">
+        <v>3</v>
+      </c>
+      <c r="E29" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="33">
+        <v>22</v>
+      </c>
+      <c r="I29" s="42" cm="1">
+        <f t="array" ref="I29">(SUMPRODUCT(($A$3:$A$276=H29)*(ISNUMBER(SEARCH("True", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, H29)</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="J29" s="6" cm="1">
+        <f t="array" ref="J29">(SUMPRODUCT(($D$3:$D$276=H29)*(ISNUMBER(SEARCH("True", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, H29)</f>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="K29" s="6" cm="1">
+        <f t="array" ref="K29">(SUMPRODUCT(($A$3:$A$276=$H29)*(ISNUMBER(SEARCH("False", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H29)</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="L29" s="6" cm="1">
+        <f t="array" ref="L29">(SUMPRODUCT(($D$3:$D$276=$H29)*(ISNUMBER(SEARCH("False", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H29)</f>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="M29" s="6" cm="1">
+        <f t="array" ref="M29">(SUMPRODUCT(($A$3:$A$276=$H29)*(ISNUMBER(SEARCH("Hallucination", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H29)</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="6" cm="1">
+        <f t="array" ref="N29">(SUMPRODUCT(($D$3:$D$276=$H29)*(ISNUMBER(SEARCH("Hallucination", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H29)</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="20">
+        <v>3</v>
+      </c>
+      <c r="B30" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" s="20">
+        <v>3</v>
+      </c>
+      <c r="E30" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" s="33">
+        <v>23</v>
+      </c>
+      <c r="I30" s="42" cm="1">
+        <f t="array" ref="I30">(SUMPRODUCT(($A$3:$A$276=H30)*(ISNUMBER(SEARCH("True", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, H30)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J30" s="6" cm="1">
+        <f t="array" ref="J30">(SUMPRODUCT(($D$3:$D$276=H30)*(ISNUMBER(SEARCH("True", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, H30)</f>
+        <v>0.8</v>
+      </c>
+      <c r="K30" s="6" cm="1">
+        <f t="array" ref="K30">(SUMPRODUCT(($A$3:$A$276=$H30)*(ISNUMBER(SEARCH("False", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H30)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L30" s="6" cm="1">
+        <f t="array" ref="L30">(SUMPRODUCT(($D$3:$D$276=$H30)*(ISNUMBER(SEARCH("False", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H30)</f>
+        <v>0.2</v>
+      </c>
+      <c r="M30" s="6" cm="1">
+        <f t="array" ref="M30">(SUMPRODUCT(($A$3:$A$276=$H30)*(ISNUMBER(SEARCH("Hallucination", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H30)</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="6" cm="1">
+        <f t="array" ref="N30">(SUMPRODUCT(($D$3:$D$276=$H30)*(ISNUMBER(SEARCH("Hallucination", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H30)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="20">
+        <v>3</v>
+      </c>
+      <c r="B31" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" s="20">
+        <v>3</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="H31" s="33">
+        <v>24</v>
+      </c>
+      <c r="I31" s="42" cm="1">
+        <f t="array" ref="I31">(SUMPRODUCT(($A$3:$A$276=H31)*(ISNUMBER(SEARCH("True", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, H31)</f>
+        <v>0.875</v>
+      </c>
+      <c r="J31" s="6" cm="1">
+        <f t="array" ref="J31">(SUMPRODUCT(($D$3:$D$276=H31)*(ISNUMBER(SEARCH("True", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, H31)</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="K31" s="6" cm="1">
+        <f t="array" ref="K31">(SUMPRODUCT(($A$3:$A$276=$H31)*(ISNUMBER(SEARCH("False", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H31)</f>
+        <v>0.25</v>
+      </c>
+      <c r="L31" s="6" cm="1">
+        <f t="array" ref="L31">(SUMPRODUCT(($D$3:$D$276=$H31)*(ISNUMBER(SEARCH("False", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H31)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M31" s="6" cm="1">
+        <f t="array" ref="M31">(SUMPRODUCT(($A$3:$A$276=$H31)*(ISNUMBER(SEARCH("Hallucination", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H31)</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="6" cm="1">
+        <f t="array" ref="N31">(SUMPRODUCT(($D$3:$D$276=$H31)*(ISNUMBER(SEARCH("Hallucination", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="20">
+        <v>3</v>
+      </c>
+      <c r="B32" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" s="20">
+        <v>3</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="H32" s="34">
+        <v>25</v>
+      </c>
+      <c r="I32" s="42" cm="1">
+        <f t="array" ref="I32">(SUMPRODUCT(($A$3:$A$276=H32)*(ISNUMBER(SEARCH("True", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, H32)</f>
+        <v>0.8</v>
+      </c>
+      <c r="J32" s="6" cm="1">
+        <f t="array" ref="J32">(SUMPRODUCT(($D$3:$D$276=H32)*(ISNUMBER(SEARCH("True", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, H32)</f>
+        <v>0.8</v>
+      </c>
+      <c r="K32" s="6" cm="1">
+        <f t="array" ref="K32">(SUMPRODUCT(($A$3:$A$276=$H32)*(ISNUMBER(SEARCH("False", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H32)</f>
+        <v>0.2</v>
+      </c>
+      <c r="L32" s="6" cm="1">
+        <f t="array" ref="L32">(SUMPRODUCT(($D$3:$D$276=$H32)*(ISNUMBER(SEARCH("False", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H32)</f>
+        <v>0.1</v>
+      </c>
+      <c r="M32" s="6" cm="1">
+        <f t="array" ref="M32">(SUMPRODUCT(($A$3:$A$276=$H32)*(ISNUMBER(SEARCH("Hallucination", $B$3:$B$276)))))/COUNTIF($A$3:$A$276, $H32)</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="6" cm="1">
+        <f t="array" ref="N32">(SUMPRODUCT(($D$3:$D$276=$H32)*(ISNUMBER(SEARCH("Hallucination", $E$3:$E$276)))))/COUNTIF($D$3:$D$276, $H32)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="20">
+        <v>3</v>
+      </c>
+      <c r="B33" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+    </row>
+    <row r="34" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="20">
+        <v>3</v>
+      </c>
+      <c r="B34" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" s="20">
+        <v>4</v>
+      </c>
+      <c r="E34" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="D35" s="20">
+        <v>4</v>
+      </c>
+      <c r="E35" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="20">
+        <v>4</v>
+      </c>
+      <c r="B36" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" s="20">
+        <v>4</v>
+      </c>
+      <c r="E36" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="20">
+        <v>4</v>
+      </c>
+      <c r="B37" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" s="20">
+        <v>4</v>
+      </c>
+      <c r="E37" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="20">
+        <v>4</v>
+      </c>
+      <c r="B38" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" s="20">
+        <v>4</v>
+      </c>
+      <c r="E38" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="20">
+        <v>4</v>
+      </c>
+      <c r="B39" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" s="20">
+        <v>4</v>
+      </c>
+      <c r="E39" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="20">
+        <v>4</v>
+      </c>
+      <c r="B40" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" s="20">
+        <v>4</v>
+      </c>
+      <c r="E40" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="20">
+        <v>4</v>
+      </c>
+      <c r="B41" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" s="20">
+        <v>4</v>
+      </c>
+      <c r="E41" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="20">
+        <v>4</v>
+      </c>
+      <c r="B42" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="20">
+        <v>4</v>
+      </c>
+      <c r="B43" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" s="20">
+        <v>5</v>
+      </c>
+      <c r="E43" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="20">
+        <v>4</v>
+      </c>
+      <c r="B44" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" s="20">
+        <v>5</v>
+      </c>
+      <c r="E44" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="D45" s="20">
+        <v>5</v>
+      </c>
+      <c r="E45" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="20">
+        <v>5</v>
+      </c>
+      <c r="B46" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D46" s="20">
+        <v>5</v>
+      </c>
+      <c r="E46" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="20">
+        <v>5</v>
+      </c>
+      <c r="B47" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D47" s="20">
+        <v>5</v>
+      </c>
+      <c r="E47" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="20">
+        <v>5</v>
+      </c>
+      <c r="B48" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D48" s="20">
+        <v>5</v>
+      </c>
+      <c r="E48" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="20">
+        <v>5</v>
+      </c>
+      <c r="B49" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D49" s="20">
+        <v>5</v>
+      </c>
+      <c r="E49" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="20">
+        <v>5</v>
+      </c>
+      <c r="B50" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D50" s="20">
+        <v>5</v>
+      </c>
+      <c r="E50" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="20">
+        <v>5</v>
+      </c>
+      <c r="B51" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51" s="20">
+        <v>5</v>
+      </c>
+      <c r="E51" s="27" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="20">
+        <v>5</v>
+      </c>
+      <c r="B52" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52" s="20">
+        <v>5</v>
+      </c>
+      <c r="E52" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="20">
+        <v>5</v>
+      </c>
+      <c r="B53" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E53" s="27" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="20">
+        <v>5</v>
+      </c>
+      <c r="B54" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D54" s="20">
+        <v>6</v>
+      </c>
+      <c r="E54" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="20">
+        <v>5</v>
+      </c>
+      <c r="B55" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D55" s="20">
+        <v>6</v>
+      </c>
+      <c r="E55" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="D56" s="20">
+        <v>6</v>
+      </c>
+      <c r="E56" s="27" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="20">
+        <v>6</v>
+      </c>
+      <c r="B57" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D57" s="20">
+        <v>6</v>
+      </c>
+      <c r="E57" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="20">
+        <v>6</v>
+      </c>
+      <c r="B58" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D58" s="20">
+        <v>6</v>
+      </c>
+      <c r="E58" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="20">
+        <v>6</v>
+      </c>
+      <c r="B59" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D59" s="20">
+        <v>6</v>
+      </c>
+      <c r="E59" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="20">
+        <v>6</v>
+      </c>
+      <c r="B60" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D60" s="20">
+        <v>6</v>
+      </c>
+      <c r="E60" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="20">
+        <v>6</v>
+      </c>
+      <c r="B61" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D61" s="20">
+        <v>6</v>
+      </c>
+      <c r="E61" s="27" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="20">
+        <v>6</v>
+      </c>
+      <c r="B62" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D62" s="20">
+        <v>6</v>
+      </c>
+      <c r="E62" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="20">
+        <v>6</v>
+      </c>
+      <c r="B63" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D63" s="20">
+        <v>6</v>
+      </c>
+      <c r="E63" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="20">
+        <v>6</v>
+      </c>
+      <c r="B64" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E64" s="27" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="20">
+        <v>6</v>
+      </c>
+      <c r="B65" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D65" s="20">
+        <v>7</v>
+      </c>
+      <c r="E65" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="20">
+        <v>6</v>
+      </c>
+      <c r="B66" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D66" s="20">
+        <v>7</v>
+      </c>
+      <c r="E66" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="20">
+        <v>6</v>
+      </c>
+      <c r="B67" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D67" s="20">
+        <v>7</v>
+      </c>
+      <c r="E67" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="D68" s="20">
+        <v>7</v>
+      </c>
+      <c r="E68" s="27" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="20">
+        <v>7</v>
+      </c>
+      <c r="B69" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D69" s="20">
+        <v>7</v>
+      </c>
+      <c r="E69" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="20">
+        <v>7</v>
+      </c>
+      <c r="B70" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D70" s="20">
+        <v>7</v>
+      </c>
+      <c r="E70" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="20">
+        <v>7</v>
+      </c>
+      <c r="B71" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D71" s="20">
+        <v>7</v>
+      </c>
+      <c r="E71" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="20">
+        <v>7</v>
+      </c>
+      <c r="B72" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D72" s="20">
+        <v>7</v>
+      </c>
+      <c r="E72" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="20">
+        <v>7</v>
+      </c>
+      <c r="B73" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D73" s="20">
+        <v>7</v>
+      </c>
+      <c r="E73" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="20">
+        <v>7</v>
+      </c>
+      <c r="B74" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E74" s="27" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="20">
+        <v>7</v>
+      </c>
+      <c r="B75" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D75" s="20">
+        <v>8</v>
+      </c>
+      <c r="E75" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="20">
+        <v>7</v>
+      </c>
+      <c r="B76" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D76" s="20">
+        <v>8</v>
+      </c>
+      <c r="E76" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="D77" s="20">
+        <v>8</v>
+      </c>
+      <c r="E77" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="20">
+        <v>8</v>
+      </c>
+      <c r="B78" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D78" s="20">
+        <v>8</v>
+      </c>
+      <c r="E78" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="20">
+        <v>8</v>
+      </c>
+      <c r="B79" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D79" s="20">
+        <v>8</v>
+      </c>
+      <c r="E79" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="20">
+        <v>8</v>
+      </c>
+      <c r="B80" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D80" s="20">
+        <v>8</v>
+      </c>
+      <c r="E80" s="27" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="20">
+        <v>8</v>
+      </c>
+      <c r="B81" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D81" s="20">
+        <v>8</v>
+      </c>
+      <c r="E81" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="20">
+        <v>8</v>
+      </c>
+      <c r="B82" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D82" s="20">
+        <v>8</v>
+      </c>
+      <c r="E82" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="20">
+        <v>8</v>
+      </c>
+      <c r="B83" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D83" s="20">
+        <v>8</v>
+      </c>
+      <c r="E83" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="20">
+        <v>8</v>
+      </c>
+      <c r="B84" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D84" s="20">
+        <v>8</v>
+      </c>
+      <c r="E84" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="20">
+        <v>8</v>
+      </c>
+      <c r="B85" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D85" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E85" s="27" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="20">
+        <v>8</v>
+      </c>
+      <c r="B86" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D86" s="20">
+        <v>9</v>
+      </c>
+      <c r="E86" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="20">
+        <v>8</v>
+      </c>
+      <c r="B87" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D87" s="20">
+        <v>9</v>
+      </c>
+      <c r="E87" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B88" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="D88" s="20">
+        <v>9</v>
+      </c>
+      <c r="E88" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="20">
+        <v>9</v>
+      </c>
+      <c r="B89" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D89" s="20">
+        <v>9</v>
+      </c>
+      <c r="E89" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="20">
+        <v>9</v>
+      </c>
+      <c r="B90" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D90" s="20">
+        <v>9</v>
+      </c>
+      <c r="E90" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="20">
+        <v>9</v>
+      </c>
+      <c r="B91" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D91" s="20">
+        <v>9</v>
+      </c>
+      <c r="E91" s="27" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="20">
+        <v>9</v>
+      </c>
+      <c r="B92" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D92" s="20">
+        <v>9</v>
+      </c>
+      <c r="E92" s="27" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="20">
+        <v>9</v>
+      </c>
+      <c r="B93" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D93" s="20">
+        <v>9</v>
+      </c>
+      <c r="E93" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="20">
+        <v>9</v>
+      </c>
+      <c r="B94" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D94" s="20">
+        <v>9</v>
+      </c>
+      <c r="E94" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="20">
+        <v>9</v>
+      </c>
+      <c r="B95" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D95" s="20">
+        <v>9</v>
+      </c>
+      <c r="E95" s="27" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="20">
+        <v>9</v>
+      </c>
+      <c r="B96" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D96" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E96" s="27" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="20">
+        <v>9</v>
+      </c>
+      <c r="B97" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D97" s="20">
+        <v>10</v>
+      </c>
+      <c r="E97" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B98" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="D98" s="20">
+        <v>10</v>
+      </c>
+      <c r="E98" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="20">
+        <v>10</v>
+      </c>
+      <c r="B99" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="D99" s="20">
+        <v>10</v>
+      </c>
+      <c r="E99" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="20">
+        <v>10</v>
+      </c>
+      <c r="B100" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D100" s="20">
+        <v>10</v>
+      </c>
+      <c r="E100" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="20">
+        <v>10</v>
+      </c>
+      <c r="B101" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D101" s="20">
+        <v>10</v>
+      </c>
+      <c r="E101" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="20">
+        <v>10</v>
+      </c>
+      <c r="B102" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D102" s="20">
+        <v>10</v>
+      </c>
+      <c r="E102" s="27" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="20">
+        <v>10</v>
+      </c>
+      <c r="B103" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D103" s="20">
+        <v>10</v>
+      </c>
+      <c r="E103" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="20">
+        <v>10</v>
+      </c>
+      <c r="B104" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D104" s="20">
+        <v>10</v>
+      </c>
+      <c r="E104" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="20">
+        <v>10</v>
+      </c>
+      <c r="B105" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D105" s="20">
+        <v>10</v>
+      </c>
+      <c r="E105" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="20">
+        <v>10</v>
+      </c>
+      <c r="B106" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D106" s="20">
+        <v>10</v>
+      </c>
+      <c r="E106" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="20">
+        <v>10</v>
+      </c>
+      <c r="B107" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D107" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E107" s="27" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="20">
+        <v>10</v>
+      </c>
+      <c r="B108" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D108" s="20">
+        <v>11</v>
+      </c>
+      <c r="E108" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B109" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="D109" s="20">
+        <v>11</v>
+      </c>
+      <c r="E109" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="20">
+        <v>11</v>
+      </c>
+      <c r="B110" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D110" s="20">
+        <v>11</v>
+      </c>
+      <c r="E110" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="20">
+        <v>11</v>
+      </c>
+      <c r="B111" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D111" s="20">
+        <v>11</v>
+      </c>
+      <c r="E111" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="20">
+        <v>11</v>
+      </c>
+      <c r="B112" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D112" s="20">
+        <v>11</v>
+      </c>
+      <c r="E112" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="20">
+        <v>11</v>
+      </c>
+      <c r="B113" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D113" s="20">
+        <v>11</v>
+      </c>
+      <c r="E113" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="20">
+        <v>11</v>
+      </c>
+      <c r="B114" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D114" s="20">
+        <v>11</v>
+      </c>
+      <c r="E114" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="20">
+        <v>11</v>
+      </c>
+      <c r="B115" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D115" s="20">
+        <v>11</v>
+      </c>
+      <c r="E115" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="20">
+        <v>11</v>
+      </c>
+      <c r="B116" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D116" s="20">
+        <v>11</v>
+      </c>
+      <c r="E116" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="20">
+        <v>11</v>
+      </c>
+      <c r="B117" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D117" s="20">
+        <v>11</v>
+      </c>
+      <c r="E117" s="27" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B118" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="D118" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E118" s="27" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="20">
+        <v>12</v>
+      </c>
+      <c r="B119" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D119" s="20">
+        <v>12</v>
+      </c>
+      <c r="E119" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="20">
+        <v>12</v>
+      </c>
+      <c r="B120" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D120" s="20">
+        <v>12</v>
+      </c>
+      <c r="E120" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="20">
+        <v>12</v>
+      </c>
+      <c r="B121" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D121" s="20">
+        <v>12</v>
+      </c>
+      <c r="E121" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="20">
+        <v>12</v>
+      </c>
+      <c r="B122" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D122" s="20">
+        <v>12</v>
+      </c>
+      <c r="E122" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="20">
+        <v>12</v>
+      </c>
+      <c r="B123" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D123" s="20">
+        <v>12</v>
+      </c>
+      <c r="E123" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="20">
+        <v>12</v>
+      </c>
+      <c r="B124" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D124" s="20">
+        <v>12</v>
+      </c>
+      <c r="E124" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="20">
+        <v>12</v>
+      </c>
+      <c r="B125" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="D125" s="20">
+        <v>12</v>
+      </c>
+      <c r="E125" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="20">
+        <v>12</v>
+      </c>
+      <c r="B126" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D126" s="20">
+        <v>12</v>
+      </c>
+      <c r="E126" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="20">
+        <v>12</v>
+      </c>
+      <c r="B127" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D127" s="20">
+        <v>12</v>
+      </c>
+      <c r="E127" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B128" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="D128" s="20">
+        <v>12</v>
+      </c>
+      <c r="E128" s="27" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="20">
+        <v>13</v>
+      </c>
+      <c r="B129" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D129" s="20">
+        <v>12</v>
+      </c>
+      <c r="E129" s="27" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="20">
+        <v>13</v>
+      </c>
+      <c r="B130" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D130" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E130" s="27" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="20">
+        <v>13</v>
+      </c>
+      <c r="B131" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D131" s="20">
+        <v>13</v>
+      </c>
+      <c r="E131" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="20">
+        <v>13</v>
+      </c>
+      <c r="B132" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D132" s="20">
+        <v>13</v>
+      </c>
+      <c r="E132" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="20">
+        <v>13</v>
+      </c>
+      <c r="B133" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D133" s="20">
+        <v>13</v>
+      </c>
+      <c r="E133" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="20">
+        <v>13</v>
+      </c>
+      <c r="B134" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="D134" s="20">
+        <v>13</v>
+      </c>
+      <c r="E134" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="20">
+        <v>13</v>
+      </c>
+      <c r="B135" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D135" s="20">
+        <v>13</v>
+      </c>
+      <c r="E135" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="20">
+        <v>13</v>
+      </c>
+      <c r="B136" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D136" s="20">
+        <v>13</v>
+      </c>
+      <c r="E136" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B137" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="D137" s="20">
+        <v>13</v>
+      </c>
+      <c r="E137" s="27" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="20">
+        <v>14</v>
+      </c>
+      <c r="B138" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D138" s="20">
+        <v>13</v>
+      </c>
+      <c r="E138" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="20">
+        <v>14</v>
+      </c>
+      <c r="B139" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D139" s="20">
+        <v>13</v>
+      </c>
+      <c r="E139" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="20">
+        <v>14</v>
+      </c>
+      <c r="B140" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D140" s="20">
+        <v>13</v>
+      </c>
+      <c r="E140" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="20">
+        <v>14</v>
+      </c>
+      <c r="B141" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D141" s="20">
+        <v>13</v>
+      </c>
+      <c r="E141" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="20">
+        <v>14</v>
+      </c>
+      <c r="B142" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D142" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E142" s="27" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="20">
+        <v>14</v>
+      </c>
+      <c r="B143" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D143" s="20">
+        <v>14</v>
+      </c>
+      <c r="E143" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="20">
+        <v>14</v>
+      </c>
+      <c r="B144" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D144" s="20">
+        <v>14</v>
+      </c>
+      <c r="E144" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="20">
+        <v>14</v>
+      </c>
+      <c r="B145" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="D145" s="20">
+        <v>14</v>
+      </c>
+      <c r="E145" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="20">
+        <v>14</v>
+      </c>
+      <c r="B146" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D146" s="20">
+        <v>14</v>
+      </c>
+      <c r="E146" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B147" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="D147" s="20">
+        <v>14</v>
+      </c>
+      <c r="E147" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="20">
+        <v>15</v>
+      </c>
+      <c r="B148" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D148" s="20">
+        <v>14</v>
+      </c>
+      <c r="E148" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="20">
+        <v>15</v>
+      </c>
+      <c r="B149" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D149" s="20">
+        <v>14</v>
+      </c>
+      <c r="E149" s="27" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="20">
+        <v>15</v>
+      </c>
+      <c r="B150" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D150" s="20">
+        <v>14</v>
+      </c>
+      <c r="E150" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="20">
+        <v>15</v>
+      </c>
+      <c r="B151" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D151" s="20">
+        <v>14</v>
+      </c>
+      <c r="E151" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="20">
+        <v>15</v>
+      </c>
+      <c r="B152" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D152" s="20">
+        <v>14</v>
+      </c>
+      <c r="E152" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="20">
+        <v>15</v>
+      </c>
+      <c r="B153" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="D153" s="20">
+        <v>14</v>
+      </c>
+      <c r="E153" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="20">
+        <v>15</v>
+      </c>
+      <c r="B154" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D154" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E154" s="27" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="20">
+        <v>15</v>
+      </c>
+      <c r="B155" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D155" s="20">
+        <v>15</v>
+      </c>
+      <c r="E155" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B156" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="D156" s="20">
+        <v>15</v>
+      </c>
+      <c r="E156" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="20">
+        <v>16</v>
+      </c>
+      <c r="B157" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D157" s="20">
+        <v>15</v>
+      </c>
+      <c r="E157" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="20">
+        <v>16</v>
+      </c>
+      <c r="B158" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="D158" s="20">
+        <v>15</v>
+      </c>
+      <c r="E158" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="20">
+        <v>16</v>
+      </c>
+      <c r="B159" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D159" s="20">
+        <v>15</v>
+      </c>
+      <c r="E159" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="20">
+        <v>16</v>
+      </c>
+      <c r="B160" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D160" s="20">
+        <v>15</v>
+      </c>
+      <c r="E160" s="27" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="20">
+        <v>16</v>
+      </c>
+      <c r="B161" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D161" s="20">
+        <v>15</v>
+      </c>
+      <c r="E161" s="27" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="20">
+        <v>16</v>
+      </c>
+      <c r="B162" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D162" s="20">
+        <v>15</v>
+      </c>
+      <c r="E162" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="20">
+        <v>16</v>
+      </c>
+      <c r="B163" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D163" s="20">
+        <v>15</v>
+      </c>
+      <c r="E163" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="20">
+        <v>16</v>
+      </c>
+      <c r="B164" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D164" s="20">
+        <v>15</v>
+      </c>
+      <c r="E164" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="20">
+        <v>16</v>
+      </c>
+      <c r="B165" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D165" s="20">
+        <v>15</v>
+      </c>
+      <c r="E165" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B166" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="D166" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E166" s="27" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="20">
+        <v>17</v>
+      </c>
+      <c r="B167" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D167" s="20">
+        <v>16</v>
+      </c>
+      <c r="E167" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="20">
+        <v>17</v>
+      </c>
+      <c r="B168" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D168" s="20">
+        <v>16</v>
+      </c>
+      <c r="E168" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="20">
+        <v>17</v>
+      </c>
+      <c r="B169" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D169" s="20">
+        <v>16</v>
+      </c>
+      <c r="E169" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="20">
+        <v>17</v>
+      </c>
+      <c r="B170" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D170" s="20">
+        <v>16</v>
+      </c>
+      <c r="E170" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="20">
+        <v>17</v>
+      </c>
+      <c r="B171" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D171" s="20">
+        <v>16</v>
+      </c>
+      <c r="E171" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="20">
+        <v>17</v>
+      </c>
+      <c r="B172" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D172" s="20">
+        <v>16</v>
+      </c>
+      <c r="E172" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="20">
+        <v>17</v>
+      </c>
+      <c r="B173" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D173" s="20">
+        <v>16</v>
+      </c>
+      <c r="E173" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="20">
+        <v>17</v>
+      </c>
+      <c r="B174" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D174" s="20">
+        <v>16</v>
+      </c>
+      <c r="E174" s="27" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="20">
+        <v>17</v>
+      </c>
+      <c r="B175" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D175" s="20">
+        <v>16</v>
+      </c>
+      <c r="E175" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B176" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="D176" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="E176" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="20">
+        <v>18</v>
+      </c>
+      <c r="B177" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D177" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E177" s="27" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="20">
+        <v>18</v>
+      </c>
+      <c r="B178" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D178" s="20">
+        <v>17</v>
+      </c>
+      <c r="E178" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="20">
+        <v>18</v>
+      </c>
+      <c r="B179" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D179" s="20">
+        <v>17</v>
+      </c>
+      <c r="E179" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="20">
+        <v>18</v>
+      </c>
+      <c r="B180" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D180" s="20">
+        <v>17</v>
+      </c>
+      <c r="E180" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="20">
+        <v>18</v>
+      </c>
+      <c r="B181" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D181" s="20">
+        <v>17</v>
+      </c>
+      <c r="E181" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="20">
+        <v>18</v>
+      </c>
+      <c r="B182" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D182" s="20">
+        <v>17</v>
+      </c>
+      <c r="E182" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="20">
+        <v>18</v>
+      </c>
+      <c r="B183" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D183" s="20">
+        <v>17</v>
+      </c>
+      <c r="E183" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="20">
+        <v>18</v>
+      </c>
+      <c r="B184" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D184" s="20">
+        <v>17</v>
+      </c>
+      <c r="E184" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="20">
+        <v>18</v>
+      </c>
+      <c r="B185" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D185" s="20">
+        <v>17</v>
+      </c>
+      <c r="E185" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B186" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="D186" s="20">
+        <v>17</v>
+      </c>
+      <c r="E186" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="20">
+        <v>19</v>
+      </c>
+      <c r="B187" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D187" s="20">
+        <v>17</v>
+      </c>
+      <c r="E187" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="20">
+        <v>19</v>
+      </c>
+      <c r="B188" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D188" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E188" s="27" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="20">
+        <v>19</v>
+      </c>
+      <c r="B189" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D189" s="20">
+        <v>18</v>
+      </c>
+      <c r="E189" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="20">
+        <v>19</v>
+      </c>
+      <c r="B190" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D190" s="20">
+        <v>18</v>
+      </c>
+      <c r="E190" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="20">
+        <v>19</v>
+      </c>
+      <c r="B191" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D191" s="20">
+        <v>18</v>
+      </c>
+      <c r="E191" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="20">
+        <v>19</v>
+      </c>
+      <c r="B192" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D192" s="20">
+        <v>18</v>
+      </c>
+      <c r="E192" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="20">
+        <v>19</v>
+      </c>
+      <c r="B193" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D193" s="20">
+        <v>18</v>
+      </c>
+      <c r="E193" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="20">
+        <v>19</v>
+      </c>
+      <c r="B194" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D194" s="20">
+        <v>18</v>
+      </c>
+      <c r="E194" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="20">
+        <v>19</v>
+      </c>
+      <c r="B195" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D195" s="20">
+        <v>18</v>
+      </c>
+      <c r="E195" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B196" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="D196" s="20">
+        <v>18</v>
+      </c>
+      <c r="E196" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="20">
+        <v>20</v>
+      </c>
+      <c r="B197" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D197" s="20">
+        <v>18</v>
+      </c>
+      <c r="E197" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="20">
+        <v>20</v>
+      </c>
+      <c r="B198" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D198" s="20">
+        <v>18</v>
+      </c>
+      <c r="E198" s="27" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="20">
+        <v>20</v>
+      </c>
+      <c r="B199" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D199" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E199" s="27" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="20">
+        <v>20</v>
+      </c>
+      <c r="B200" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D200" s="20">
+        <v>19</v>
+      </c>
+      <c r="E200" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="20">
+        <v>20</v>
+      </c>
+      <c r="B201" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D201" s="20">
+        <v>19</v>
+      </c>
+      <c r="E201" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="20">
+        <v>20</v>
+      </c>
+      <c r="B202" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D202" s="20">
+        <v>19</v>
+      </c>
+      <c r="E202" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="20">
+        <v>20</v>
+      </c>
+      <c r="B203" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D203" s="20">
+        <v>19</v>
+      </c>
+      <c r="E203" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="20">
+        <v>20</v>
+      </c>
+      <c r="B204" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D204" s="20">
+        <v>19</v>
+      </c>
+      <c r="E204" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="20">
+        <v>20</v>
+      </c>
+      <c r="B205" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D205" s="20">
+        <v>19</v>
+      </c>
+      <c r="E205" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B206" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="D206" s="20">
+        <v>19</v>
+      </c>
+      <c r="E206" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="20">
+        <v>21</v>
+      </c>
+      <c r="B207" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D207" s="20">
+        <v>19</v>
+      </c>
+      <c r="E207" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="20">
+        <v>21</v>
+      </c>
+      <c r="B208" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D208" s="20">
+        <v>19</v>
+      </c>
+      <c r="E208" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="20">
+        <v>21</v>
+      </c>
+      <c r="B209" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D209" s="20">
+        <v>19</v>
+      </c>
+      <c r="E209" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="20">
+        <v>21</v>
+      </c>
+      <c r="B210" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D210" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E210" s="27" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="20">
+        <v>21</v>
+      </c>
+      <c r="B211" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D211" s="20">
+        <v>20</v>
+      </c>
+      <c r="E211" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="20">
+        <v>21</v>
+      </c>
+      <c r="B212" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D212" s="20">
+        <v>20</v>
+      </c>
+      <c r="E212" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="20">
+        <v>21</v>
+      </c>
+      <c r="B213" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D213" s="20">
+        <v>20</v>
+      </c>
+      <c r="E213" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="20">
+        <v>21</v>
+      </c>
+      <c r="B214" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D214" s="20">
+        <v>20</v>
+      </c>
+      <c r="E214" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="20">
+        <v>21</v>
+      </c>
+      <c r="B215" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D215" s="20">
+        <v>20</v>
+      </c>
+      <c r="E215" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B216" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="D216" s="20">
+        <v>20</v>
+      </c>
+      <c r="E216" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="20">
+        <v>22</v>
+      </c>
+      <c r="B217" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D217" s="20">
+        <v>20</v>
+      </c>
+      <c r="E217" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="20">
+        <v>22</v>
+      </c>
+      <c r="B218" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D218" s="20">
+        <v>20</v>
+      </c>
+      <c r="E218" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="20">
+        <v>22</v>
+      </c>
+      <c r="B219" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D219" s="20">
+        <v>20</v>
+      </c>
+      <c r="E219" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="20">
+        <v>22</v>
+      </c>
+      <c r="B220" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D220" s="20">
+        <v>20</v>
+      </c>
+      <c r="E220" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="20">
+        <v>22</v>
+      </c>
+      <c r="B221" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D221" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E221" s="27" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="20">
+        <v>22</v>
+      </c>
+      <c r="B222" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D222" s="20">
+        <v>21</v>
+      </c>
+      <c r="E222" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="20">
+        <v>22</v>
+      </c>
+      <c r="B223" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D223" s="20">
+        <v>21</v>
+      </c>
+      <c r="E223" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="20">
+        <v>22</v>
+      </c>
+      <c r="B224" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D224" s="20">
+        <v>21</v>
+      </c>
+      <c r="E224" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="20">
+        <v>22</v>
+      </c>
+      <c r="B225" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D225" s="20">
+        <v>21</v>
+      </c>
+      <c r="E225" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B226" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="D226" s="20">
+        <v>21</v>
+      </c>
+      <c r="E226" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="20">
+        <v>23</v>
+      </c>
+      <c r="B227" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D227" s="20">
+        <v>21</v>
+      </c>
+      <c r="E227" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="20">
+        <v>23</v>
+      </c>
+      <c r="B228" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D228" s="20">
+        <v>21</v>
+      </c>
+      <c r="E228" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="20">
+        <v>23</v>
+      </c>
+      <c r="B229" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D229" s="20">
+        <v>21</v>
+      </c>
+      <c r="E229" s="27" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="20">
+        <v>23</v>
+      </c>
+      <c r="B230" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D230" s="20">
+        <v>21</v>
+      </c>
+      <c r="E230" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="20">
+        <v>23</v>
+      </c>
+      <c r="B231" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D231" s="20">
+        <v>21</v>
+      </c>
+      <c r="E231" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="20">
+        <v>23</v>
+      </c>
+      <c r="B232" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D232" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E232" s="27" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="20">
+        <v>23</v>
+      </c>
+      <c r="B233" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D233" s="20">
+        <v>22</v>
+      </c>
+      <c r="E233" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="20">
+        <v>23</v>
+      </c>
+      <c r="B234" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D234" s="20">
+        <v>22</v>
+      </c>
+      <c r="E234" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="20">
+        <v>23</v>
+      </c>
+      <c r="B235" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D235" s="20">
+        <v>22</v>
+      </c>
+      <c r="E235" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B236" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="D236" s="20">
+        <v>22</v>
+      </c>
+      <c r="E236" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="20">
+        <v>24</v>
+      </c>
+      <c r="B237" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D237" s="20">
+        <v>22</v>
+      </c>
+      <c r="E237" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="20">
+        <v>24</v>
+      </c>
+      <c r="B238" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="D238" s="20">
+        <v>22</v>
+      </c>
+      <c r="E238" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="20">
+        <v>24</v>
+      </c>
+      <c r="B239" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D239" s="20">
+        <v>22</v>
+      </c>
+      <c r="E239" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="20">
+        <v>24</v>
+      </c>
+      <c r="B240" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D240" s="20">
+        <v>22</v>
+      </c>
+      <c r="E240" s="27" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="20">
+        <v>24</v>
+      </c>
+      <c r="B241" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D241" s="20">
+        <v>22</v>
+      </c>
+      <c r="E241" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="20">
+        <v>24</v>
+      </c>
+      <c r="B242" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D242" s="20">
+        <v>22</v>
+      </c>
+      <c r="E242" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="20">
+        <v>24</v>
+      </c>
+      <c r="B243" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D243" s="20">
+        <v>22</v>
+      </c>
+      <c r="E243" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="20">
+        <v>24</v>
+      </c>
+      <c r="B244" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D244" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E244" s="27" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B245" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="D245" s="20">
+        <v>23</v>
+      </c>
+      <c r="E245" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A246" s="20">
+        <v>25</v>
+      </c>
+      <c r="B246" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D246" s="20">
+        <v>23</v>
+      </c>
+      <c r="E246" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="20">
+        <v>25</v>
+      </c>
+      <c r="B247" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D247" s="20">
+        <v>23</v>
+      </c>
+      <c r="E247" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="20">
+        <v>25</v>
+      </c>
+      <c r="B248" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D248" s="20">
+        <v>23</v>
+      </c>
+      <c r="E248" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A249" s="20">
+        <v>25</v>
+      </c>
+      <c r="B249" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D249" s="20">
+        <v>23</v>
+      </c>
+      <c r="E249" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="20">
+        <v>25</v>
+      </c>
+      <c r="B250" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D250" s="20">
+        <v>23</v>
+      </c>
+      <c r="E250" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A251" s="20">
+        <v>25</v>
+      </c>
+      <c r="B251" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D251" s="20">
+        <v>23</v>
+      </c>
+      <c r="E251" s="27" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="20">
+        <v>25</v>
+      </c>
+      <c r="B252" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D252" s="20">
+        <v>23</v>
+      </c>
+      <c r="E252" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A253" s="20">
+        <v>25</v>
+      </c>
+      <c r="B253" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D253" s="20">
+        <v>23</v>
+      </c>
+      <c r="E253" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A254" s="20">
+        <v>25</v>
+      </c>
+      <c r="B254" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D254" s="20">
+        <v>23</v>
+      </c>
+      <c r="E254" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A255" s="20">
+        <v>25</v>
+      </c>
+      <c r="B255" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D255" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E255" s="27" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B256" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="D256" s="20">
+        <v>24</v>
+      </c>
+      <c r="E256" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="4:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D257" s="20">
+        <v>24</v>
+      </c>
+      <c r="E257" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="4:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D258" s="20">
+        <v>24</v>
+      </c>
+      <c r="E258" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="259" spans="4:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D259" s="20">
+        <v>24</v>
+      </c>
+      <c r="E259" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="4:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D260" s="20">
+        <v>24</v>
+      </c>
+      <c r="E260" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="4:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D261" s="20">
+        <v>24</v>
+      </c>
+      <c r="E261" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="4:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D262" s="20">
+        <v>24</v>
+      </c>
+      <c r="E262" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="4:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D263" s="20">
+        <v>24</v>
+      </c>
+      <c r="E263" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="4:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D264" s="20">
+        <v>24</v>
+      </c>
+      <c r="E264" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="4:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D265" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E265" s="27" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="266" spans="4:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D266" s="20">
+        <v>25</v>
+      </c>
+      <c r="E266" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="4:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D267" s="20">
+        <v>25</v>
+      </c>
+      <c r="E267" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="4:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D268" s="20">
+        <v>25</v>
+      </c>
+      <c r="E268" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="4:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D269" s="20">
+        <v>25</v>
+      </c>
+      <c r="E269" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="4:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D270" s="20">
+        <v>25</v>
+      </c>
+      <c r="E270" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="4:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D271" s="20">
+        <v>25</v>
+      </c>
+      <c r="E271" s="27" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="272" spans="4:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D272" s="20">
+        <v>25</v>
+      </c>
+      <c r="E272" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="4:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D273" s="20">
+        <v>25</v>
+      </c>
+      <c r="E273" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="4:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D274" s="20">
+        <v>25</v>
+      </c>
+      <c r="E274" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="4:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D275" s="20">
+        <v>25</v>
+      </c>
+      <c r="E275" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="4:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D276" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E276" s="28" t="s">
+        <v>344</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>